--- a/Connectivity_matrices/Theorical_connectivity_matrices.xlsx
+++ b/Connectivity_matrices/Theorical_connectivity_matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E01CF-3D23-40CD-B0E1-0E2F14DBB143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55199ED9-67C1-4EFC-B18D-2FDC1472457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23808" yWindow="768" windowWidth="23040" windowHeight="12120" firstSheet="8" activeTab="8" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="PEN-to-EPG" sheetId="2" r:id="rId8"/>
     <sheet name="EPG-to-d7" sheetId="3" r:id="rId9"/>
     <sheet name="d7-to-d7" sheetId="4" r:id="rId10"/>
-    <sheet name="d7-to-PEG-PEN-PFN-PFL" sheetId="5" r:id="rId11"/>
+    <sheet name="d7-to-EPG-PEG-PEN-PFN-PFL" sheetId="5" r:id="rId11"/>
     <sheet name="PFN-to-PFL" sheetId="6" r:id="rId12"/>
     <sheet name="PFN-to-hd" sheetId="18" r:id="rId13"/>
     <sheet name="hd-to-PFL" sheetId="7" r:id="rId14"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
   <si>
     <t>TS</t>
   </si>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DS123"/>
   <sheetViews>
-    <sheetView topLeftCell="CY79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DK132" sqref="DK132"/>
+    <sheetView topLeftCell="AW28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BH60" sqref="BH60:BW75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3694,35 +3694,35 @@
       </c>
       <c r="AR9">
         <f>'TR-to-PEN'!A1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AS9">
         <f>'TR-to-PEN'!B1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT9">
         <f>'TR-to-PEN'!C1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AU9">
         <f>'TR-to-PEN'!D1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AV9">
         <f>'TR-to-PEN'!E1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AW9">
         <f>'TR-to-PEN'!F1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AX9">
         <f>'TR-to-PEN'!G1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AY9">
         <f>'TR-to-PEN'!H1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AZ9">
         <f>'TR-to-PEN'!I1 * Gains!$G$3</f>
@@ -4113,35 +4113,35 @@
       </c>
       <c r="AZ10">
         <f>'TR-to-PEN'!I2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BA10">
         <f>'TR-to-PEN'!J2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BB10">
         <f>'TR-to-PEN'!K2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BC10">
         <f>'TR-to-PEN'!L2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BD10">
         <f>'TR-to-PEN'!M2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BE10">
         <f>'TR-to-PEN'!N2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BF10">
         <f>'TR-to-PEN'!O2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BG10">
         <f>'TR-to-PEN'!P2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BH10" s="1">
         <v>0</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="AB12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$F$5</f>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -4935,15 +4935,15 @@
       </c>
       <c r="BH12">
         <f>'EPG-to-d7'!A1 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BI12">
         <f>'EPG-to-d7'!B1 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ12">
         <f>'EPG-to-d7'!C1 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BK12">
         <f>'EPG-to-d7'!D1 * Gains!$H$5</f>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="BO12">
         <f>'EPG-to-d7'!H1 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BP12">
         <f>'EPG-to-d7'!I1 * Gains!$H$5</f>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="AC13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$F$5</f>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -5354,19 +5354,19 @@
       </c>
       <c r="BH13">
         <f>'EPG-to-d7'!A2 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BI13">
         <f>'EPG-to-d7'!B2 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BJ13">
         <f>'EPG-to-d7'!C2 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BK13">
         <f>'EPG-to-d7'!D2 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BL13">
         <f>'EPG-to-d7'!E2 * Gains!$H$5</f>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="AD14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$F$5</f>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -5773,23 +5773,23 @@
       </c>
       <c r="BH14">
         <f>'EPG-to-d7'!A3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BI14">
         <f>'EPG-to-d7'!B3 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ14">
         <f>'EPG-to-d7'!C3 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK14">
         <f>'EPG-to-d7'!D3 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BL14">
         <f>'EPG-to-d7'!E3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BM14">
         <f>'EPG-to-d7'!F3 * Gains!$H$5</f>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AE15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$F$5</f>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -6196,23 +6196,23 @@
       </c>
       <c r="BI15">
         <f>'EPG-to-d7'!B4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ15">
         <f>'EPG-to-d7'!C4 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BK15">
         <f>'EPG-to-d7'!D4 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BL15">
         <f>'EPG-to-d7'!E4 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BM15">
         <f>'EPG-to-d7'!F4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BN15">
         <f>'EPG-to-d7'!G4 * Gains!$H$5</f>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="AF16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$F$5</f>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -6619,23 +6619,23 @@
       </c>
       <c r="BJ16">
         <f>'EPG-to-d7'!C5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BK16">
         <f>'EPG-to-d7'!D5 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BL16">
         <f>'EPG-to-d7'!E5 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BM16">
         <f>'EPG-to-d7'!F5 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BN16">
         <f>'EPG-to-d7'!G5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BO16">
         <f>'EPG-to-d7'!H5 * Gains!$H$5</f>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="AG17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$F$5</f>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -7042,23 +7042,23 @@
       </c>
       <c r="BK17">
         <f>'EPG-to-d7'!D6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BL17">
         <f>'EPG-to-d7'!E6 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BM17">
         <f>'EPG-to-d7'!F6 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BN17">
         <f>'EPG-to-d7'!G6 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BO17">
         <f>'EPG-to-d7'!H6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BP17">
         <f>'EPG-to-d7'!I6 * Gains!$H$5</f>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="AH18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$F$5</f>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="BH18">
         <f>'EPG-to-d7'!A7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BI18">
         <f>'EPG-to-d7'!B7 * Gains!$H$5</f>
@@ -7465,19 +7465,19 @@
       </c>
       <c r="BL18">
         <f>'EPG-to-d7'!E7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BM18">
         <f>'EPG-to-d7'!F7 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BN18">
         <f>'EPG-to-d7'!G7 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BO18">
         <f>'EPG-to-d7'!H7 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BP18">
         <f>'EPG-to-d7'!I7 * Gains!$H$5</f>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="AI19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$F$5</f>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -7868,11 +7868,11 @@
       </c>
       <c r="BH19">
         <f>'EPG-to-d7'!A8 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BI19">
         <f>'EPG-to-d7'!B8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ19">
         <f>'EPG-to-d7'!C8 * Gains!$H$5</f>
@@ -7888,15 +7888,15 @@
       </c>
       <c r="BM19">
         <f>'EPG-to-d7'!F8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BN19">
         <f>'EPG-to-d7'!G8 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BO19">
         <f>'EPG-to-d7'!H8 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BP19">
         <f>'EPG-to-d7'!I8 * Gains!$H$5</f>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="AJ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AK20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$F$5</f>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -8319,15 +8319,15 @@
       </c>
       <c r="BP20">
         <f>'EPG-to-d7'!I9 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BQ20">
         <f>'EPG-to-d7'!J9 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BR20">
         <f>'EPG-to-d7'!K9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BS20">
         <f>'EPG-to-d7'!L9 * Gains!$H$5</f>
@@ -8343,11 +8343,11 @@
       </c>
       <c r="BV20">
         <f>'EPG-to-d7'!O9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BW20">
         <f>'EPG-to-d7'!P9 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BX20" s="3">
         <v>0</v>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="AK21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AL21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$F$5</f>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -8738,19 +8738,19 @@
       </c>
       <c r="BP21">
         <f>'EPG-to-d7'!I10 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BQ21">
         <f>'EPG-to-d7'!J10 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BR21">
         <f>'EPG-to-d7'!K10 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BS21">
         <f>'EPG-to-d7'!L10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BT21">
         <f>'EPG-to-d7'!M10 * Gains!$H$5</f>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="BW21">
         <f>'EPG-to-d7'!P10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BX21" s="3">
         <v>0</v>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="AL22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$F$5</f>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -9157,23 +9157,23 @@
       </c>
       <c r="BP22">
         <f>'EPG-to-d7'!I11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BQ22">
         <f>'EPG-to-d7'!J11 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BR22">
         <f>'EPG-to-d7'!K11 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BS22">
         <f>'EPG-to-d7'!L11 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BT22">
         <f>'EPG-to-d7'!M11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BU22">
         <f>'EPG-to-d7'!N11 * Gains!$H$5</f>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="AM23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AN23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$F$5</f>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -9580,23 +9580,23 @@
       </c>
       <c r="BQ23">
         <f>'EPG-to-d7'!J12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BR23">
         <f>'EPG-to-d7'!K12 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BS23">
         <f>'EPG-to-d7'!L12 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BT23">
         <f>'EPG-to-d7'!M12 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BU23">
         <f>'EPG-to-d7'!N12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BV23">
         <f>'EPG-to-d7'!O12 * Gains!$H$5</f>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="AN24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$F$5</f>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -10003,23 +10003,23 @@
       </c>
       <c r="BR24">
         <f>'EPG-to-d7'!K13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BS24">
         <f>'EPG-to-d7'!L13 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BT24">
         <f>'EPG-to-d7'!M13 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BU24">
         <f>'EPG-to-d7'!N13 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BV24">
         <f>'EPG-to-d7'!O13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BW24">
         <f>'EPG-to-d7'!P13 * Gains!$H$5</f>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="AO25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AP25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$F$5</f>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -10426,23 +10426,23 @@
       </c>
       <c r="BS25">
         <f>'EPG-to-d7'!L14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BT25">
         <f>'EPG-to-d7'!M14 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BU25">
         <f>'EPG-to-d7'!N14 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BV25">
         <f>'EPG-to-d7'!O14 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BW25">
         <f>'EPG-to-d7'!P14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BX25" s="3">
         <v>0</v>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="AP26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$F$5</f>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="BP26">
         <f>'EPG-to-d7'!I15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BQ26">
         <f>'EPG-to-d7'!J15 * Gains!$H$5</f>
@@ -10849,19 +10849,19 @@
       </c>
       <c r="BT26">
         <f>'EPG-to-d7'!M15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BU26">
         <f>'EPG-to-d7'!N15 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BV26">
         <f>'EPG-to-d7'!O15 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BW26">
         <f>'EPG-to-d7'!P15 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BX26" s="3">
         <v>0</v>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="AQ27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16 * Gains!$G$5</f>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
@@ -11252,11 +11252,11 @@
       </c>
       <c r="BP27">
         <f>'EPG-to-d7'!I16 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BQ27">
         <f>'EPG-to-d7'!J16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BR27">
         <f>'EPG-to-d7'!K16 * Gains!$H$5</f>
@@ -11272,15 +11272,15 @@
       </c>
       <c r="BU27">
         <f>'EPG-to-d7'!N16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BV27">
         <f>'EPG-to-d7'!O16 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BW27">
         <f>'EPG-to-d7'!P16 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BX27" s="3">
         <v>0</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -16546,7 +16546,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -17328,7 +17328,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -17683,7 +17683,7 @@
       </c>
       <c r="S44">
         <f>'PEN-to-EPG'!H1 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <f>'PEN-to-EPG'!I1 * Gains!$E$7</f>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="AA44">
         <f>'PEN-to-EPG'!P1 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="1">
         <v>0</v>
@@ -18042,7 +18042,7 @@
       </c>
       <c r="L45">
         <f>'PEN-to-EPG'!A2 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <f>'PEN-to-EPG'!B2 * Gains!$E$7</f>
@@ -18074,7 +18074,7 @@
       </c>
       <c r="T45">
         <f>'PEN-to-EPG'!I2 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <f>'PEN-to-EPG'!J2 * Gains!$E$7</f>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="M46">
         <f>'PEN-to-EPG'!B3 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <f>'PEN-to-EPG'!C3 * Gains!$E$7</f>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="U46">
         <f>'PEN-to-EPG'!J3 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <f>'PEN-to-EPG'!K3 * Gains!$E$7</f>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="N47">
         <f>'PEN-to-EPG'!C4 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <f>'PEN-to-EPG'!D4 * Gains!$E$7</f>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="V47">
         <f>'PEN-to-EPG'!K4 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <f>'PEN-to-EPG'!L4 * Gains!$E$7</f>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="O48">
         <f>'PEN-to-EPG'!D5 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <f>'PEN-to-EPG'!E5 * Gains!$E$7</f>
@@ -19247,7 +19247,7 @@
       </c>
       <c r="W48">
         <f>'PEN-to-EPG'!L5 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <f>'PEN-to-EPG'!M5 * Gains!$E$7</f>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="P49">
         <f>'PEN-to-EPG'!E6 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <f>'PEN-to-EPG'!F6 * Gains!$E$7</f>
@@ -19638,7 +19638,7 @@
       </c>
       <c r="X49">
         <f>'PEN-to-EPG'!M6 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <f>'PEN-to-EPG'!N6 * Gains!$E$7</f>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="Q50">
         <f>'PEN-to-EPG'!F7 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <f>'PEN-to-EPG'!G7 * Gains!$E$7</f>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="Y50">
         <f>'PEN-to-EPG'!N7 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <f>'PEN-to-EPG'!O7 * Gains!$E$7</f>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="R51">
         <f>'PEN-to-EPG'!G8 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <f>'PEN-to-EPG'!H8 * Gains!$E$7</f>
@@ -20420,7 +20420,7 @@
       </c>
       <c r="Z51">
         <f>'PEN-to-EPG'!O8 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <f>'PEN-to-EPG'!P8 * Gains!$E$7</f>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="M52">
         <f>'PEN-to-EPG'!B9 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <f>'PEN-to-EPG'!C9 * Gains!$E$7</f>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="U52">
         <f>'PEN-to-EPG'!J9 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <f>'PEN-to-EPG'!K9 * Gains!$E$7</f>
@@ -21146,7 +21146,7 @@
       </c>
       <c r="N53">
         <f>'PEN-to-EPG'!C10 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <f>'PEN-to-EPG'!D10 * Gains!$E$7</f>
@@ -21178,7 +21178,7 @@
       </c>
       <c r="V53">
         <f>'PEN-to-EPG'!K10 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <f>'PEN-to-EPG'!L10 * Gains!$E$7</f>
@@ -21537,7 +21537,7 @@
       </c>
       <c r="O54">
         <f>'PEN-to-EPG'!D11 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <f>'PEN-to-EPG'!E11 * Gains!$E$7</f>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="W54">
         <f>'PEN-to-EPG'!L11 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <f>'PEN-to-EPG'!M11 * Gains!$E$7</f>
@@ -21928,7 +21928,7 @@
       </c>
       <c r="P55">
         <f>'PEN-to-EPG'!E12 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <f>'PEN-to-EPG'!F12 * Gains!$E$7</f>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="X55">
         <f>'PEN-to-EPG'!M12 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <f>'PEN-to-EPG'!N12 * Gains!$E$7</f>
@@ -22319,7 +22319,7 @@
       </c>
       <c r="Q56">
         <f>'PEN-to-EPG'!F13 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <f>'PEN-to-EPG'!G13 * Gains!$E$7</f>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="Y56">
         <f>'PEN-to-EPG'!N13 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z56">
         <f>'PEN-to-EPG'!O13 * Gains!$E$7</f>
@@ -22710,7 +22710,7 @@
       </c>
       <c r="R57">
         <f>'PEN-to-EPG'!G14 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <f>'PEN-to-EPG'!H14 * Gains!$E$7</f>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="Z57">
         <f>'PEN-to-EPG'!O14 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA57">
         <f>'PEN-to-EPG'!P14 * Gains!$E$7</f>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="S58">
         <f>'PEN-to-EPG'!H15 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <f>'PEN-to-EPG'!I15 * Gains!$E$7</f>
@@ -23133,7 +23133,7 @@
       </c>
       <c r="AA58">
         <f>'PEN-to-EPG'!P15 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB58" s="1">
         <v>0</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="L59">
         <f>'PEN-to-EPG'!A16 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <f>'PEN-to-EPG'!B16 * Gains!$E$7</f>
@@ -23492,7 +23492,7 @@
       </c>
       <c r="T59">
         <f>'PEN-to-EPG'!I16 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <f>'PEN-to-EPG'!J16 * Gains!$E$7</f>
@@ -23846,179 +23846,195 @@
         <v>0</v>
       </c>
       <c r="L60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E1 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="Q60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA60" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E1 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AG60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P1 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P1 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E1 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AW60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P1 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P1 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH60">
@@ -24027,31 +24043,31 @@
       </c>
       <c r="BI60">
         <f>'d7-to-d7'!B1 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BJ60">
         <f>'d7-to-d7'!C1 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BK60">
         <f>'d7-to-d7'!D1 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BL60">
         <f>'d7-to-d7'!E1 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BM60">
         <f>'d7-to-d7'!F1 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BN60">
         <f>'d7-to-d7'!G1 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BO60">
         <f>'d7-to-d7'!H1 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BP60">
         <f>'d7-to-d7'!I1 * Gains!$H$8</f>
@@ -24086,67 +24102,67 @@
         <v>0</v>
       </c>
       <c r="BX60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E1 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CC60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P1 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P1 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN60" s="3">
@@ -24198,67 +24214,67 @@
         <v>0</v>
       </c>
       <c r="DD60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E1 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DI60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O1 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS60">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P1 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P1 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -24297,184 +24313,200 @@
         <v>0</v>
       </c>
       <c r="L61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F2 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="R61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA61" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F2 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AH61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P2 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P2 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F2 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AX61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P2 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P2 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH61">
         <f>'d7-to-d7'!A2 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BI61">
         <f>'d7-to-d7'!B2 * Gains!$H$8</f>
@@ -24482,27 +24514,27 @@
       </c>
       <c r="BJ61">
         <f>'d7-to-d7'!C2 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BK61">
         <f>'d7-to-d7'!D2 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BL61">
         <f>'d7-to-d7'!E2 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BM61">
         <f>'d7-to-d7'!F2 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BN61">
         <f>'d7-to-d7'!G2 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BO61">
         <f>'d7-to-d7'!H2 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BP61">
         <f>'d7-to-d7'!I2 * Gains!$H$8</f>
@@ -24537,67 +24569,67 @@
         <v>0</v>
       </c>
       <c r="BX61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F2 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CD61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P2 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P2 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN61" s="3">
@@ -24649,67 +24681,67 @@
         <v>0</v>
       </c>
       <c r="DD61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F2 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DJ61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O2 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS61">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P2 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P2 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -24748,188 +24780,204 @@
         <v>0</v>
       </c>
       <c r="L62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G3 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="S62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA62" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G3 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AI62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P3 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P3 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G3 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AY62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P3 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P3 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH62">
         <f>'d7-to-d7'!A3 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BI62">
         <f>'d7-to-d7'!B3 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
         <f>'d7-to-d7'!C3 * Gains!$H$8</f>
@@ -24937,23 +24985,23 @@
       </c>
       <c r="BK62">
         <f>'d7-to-d7'!D3 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BL62">
         <f>'d7-to-d7'!E3 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BM62">
         <f>'d7-to-d7'!F3 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BN62">
         <f>'d7-to-d7'!G3 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BO62">
         <f>'d7-to-d7'!H3 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BP62">
         <f>'d7-to-d7'!I3 * Gains!$H$8</f>
@@ -24988,67 +25036,67 @@
         <v>0</v>
       </c>
       <c r="BX62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G3 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CE62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P3 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P3 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN62" s="3">
@@ -25100,67 +25148,67 @@
         <v>0</v>
       </c>
       <c r="DD62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G3 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DK62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O3 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS62">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P3 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P3 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -25199,192 +25247,208 @@
         <v>0</v>
       </c>
       <c r="L63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H4 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="T63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA63" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H4 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AJ63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P4 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P4 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H4 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AZ63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P4 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P4 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH63">
         <f>'d7-to-d7'!A4 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BI63">
         <f>'d7-to-d7'!B4 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BJ63">
         <f>'d7-to-d7'!C4 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BK63">
         <f>'d7-to-d7'!D4 * Gains!$H$8</f>
@@ -25392,19 +25456,19 @@
       </c>
       <c r="BL63">
         <f>'d7-to-d7'!E4 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BM63">
         <f>'d7-to-d7'!F4 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BN63">
         <f>'d7-to-d7'!G4 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BO63">
         <f>'d7-to-d7'!H4 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BP63">
         <f>'d7-to-d7'!I4 * Gains!$H$8</f>
@@ -25439,67 +25503,67 @@
         <v>0</v>
       </c>
       <c r="BX63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H4 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CF63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P4 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P4 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN63" s="3">
@@ -25551,67 +25615,67 @@
         <v>0</v>
       </c>
       <c r="DD63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H4 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DL63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O4 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS63">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P4 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P4 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -25650,196 +25714,212 @@
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A5 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="M64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA64" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A5 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AC64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P5 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P5 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A5 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AS64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P5 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P5 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH64">
         <f>'d7-to-d7'!A5 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BI64">
         <f>'d7-to-d7'!B5 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BJ64">
         <f>'d7-to-d7'!C5 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BK64">
         <f>'d7-to-d7'!D5 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BL64">
         <f>'d7-to-d7'!E5 * Gains!$H$8</f>
@@ -25847,15 +25927,15 @@
       </c>
       <c r="BM64">
         <f>'d7-to-d7'!F5 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BN64">
         <f>'d7-to-d7'!G5 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BO64">
         <f>'d7-to-d7'!H5 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BP64">
         <f>'d7-to-d7'!I5 * Gains!$H$8</f>
@@ -25890,67 +25970,67 @@
         <v>0</v>
       </c>
       <c r="BX64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A5 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="BY64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P5 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P5 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN64" s="3">
@@ -26002,67 +26082,67 @@
         <v>0</v>
       </c>
       <c r="DD64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A5 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DE64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O5 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS64">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P5 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P5 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -26101,200 +26181,216 @@
         <v>0</v>
       </c>
       <c r="L65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B6 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="N65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA65" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B6 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AD65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P6 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P6 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B6 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AT65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P6 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P6 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH65">
         <f>'d7-to-d7'!A6 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BI65">
         <f>'d7-to-d7'!B6 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BJ65">
         <f>'d7-to-d7'!C6 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BK65">
         <f>'d7-to-d7'!D6 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BL65">
         <f>'d7-to-d7'!E6 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BM65">
         <f>'d7-to-d7'!F6 * Gains!$H$8</f>
@@ -26302,11 +26398,11 @@
       </c>
       <c r="BN65">
         <f>'d7-to-d7'!G6 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BO65">
         <f>'d7-to-d7'!H6 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BP65">
         <f>'d7-to-d7'!I6 * Gains!$H$8</f>
@@ -26341,67 +26437,67 @@
         <v>0</v>
       </c>
       <c r="BX65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B6 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="BZ65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P6 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P6 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN65" s="3">
@@ -26453,67 +26549,67 @@
         <v>0</v>
       </c>
       <c r="DD65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B6 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DF65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O6 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS65">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P6 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P6 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -26552,204 +26648,220 @@
         <v>0</v>
       </c>
       <c r="L66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C7 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="O66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA66" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C7 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AE66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P7 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P7 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C7 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AU66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P7 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P7 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH66">
         <f>'d7-to-d7'!A7 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BI66">
         <f>'d7-to-d7'!B7 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BJ66">
         <f>'d7-to-d7'!C7 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BK66">
         <f>'d7-to-d7'!D7 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BL66">
         <f>'d7-to-d7'!E7 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BM66">
         <f>'d7-to-d7'!F7 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <f>'d7-to-d7'!G7 * Gains!$H$8</f>
@@ -26757,7 +26869,7 @@
       </c>
       <c r="BO66">
         <f>'d7-to-d7'!H7 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BP66">
         <f>'d7-to-d7'!I7 * Gains!$H$8</f>
@@ -26792,67 +26904,67 @@
         <v>0</v>
       </c>
       <c r="BX66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C7 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CA66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P7 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P7 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN66" s="3">
@@ -26904,67 +27016,67 @@
         <v>0</v>
       </c>
       <c r="DD66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C7 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DG66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O7 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS66">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P7 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P7 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -27003,208 +27115,224 @@
         <v>0</v>
       </c>
       <c r="L67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D8 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="P67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA67" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D8 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AF67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P8 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P8 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D8 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="AV67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P8 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P8 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH67">
         <f>'d7-to-d7'!A8 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BI67">
         <f>'d7-to-d7'!B8 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BJ67">
         <f>'d7-to-d7'!C8 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BK67">
         <f>'d7-to-d7'!D8 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BL67">
         <f>'d7-to-d7'!E8 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BM67">
         <f>'d7-to-d7'!F8 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BN67">
         <f>'d7-to-d7'!G8 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BO67">
         <f>'d7-to-d7'!H8 * Gains!$H$8</f>
@@ -27243,67 +27371,67 @@
         <v>0</v>
       </c>
       <c r="BX67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D8 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CB67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P8 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P8 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN67" s="3">
@@ -27355,67 +27483,67 @@
         <v>0</v>
       </c>
       <c r="DD67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D8 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DH67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O8 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS67">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P8 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P8 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -27454,179 +27582,195 @@
         <v>0</v>
       </c>
       <c r="L68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M9 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="Y68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA68" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M9 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AO68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P9 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P9 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M9 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BE68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P9 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P9 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH68">
@@ -27667,94 +27811,94 @@
       </c>
       <c r="BQ68">
         <f>'d7-to-d7'!J9 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BR68">
         <f>'d7-to-d7'!K9 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BS68">
         <f>'d7-to-d7'!L9 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BT68">
         <f>'d7-to-d7'!M9 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BU68">
         <f>'d7-to-d7'!N9 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BV68">
         <f>'d7-to-d7'!O9 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BW68">
         <f>'d7-to-d7'!P9 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BX68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M9 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CK68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P9 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P9 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN68" s="3">
@@ -27806,67 +27950,67 @@
         <v>0</v>
       </c>
       <c r="DD68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M9 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DQ68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O9 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS68">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P9 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P9 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -27905,179 +28049,195 @@
         <v>0</v>
       </c>
       <c r="L69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N10 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="Z69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA69" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N10 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AP69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P10 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P10 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N10 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BF69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P10 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P10 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH69">
@@ -28114,7 +28274,7 @@
       </c>
       <c r="BP69">
         <f>'d7-to-d7'!I10 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BQ69">
         <f>'d7-to-d7'!J10 * Gains!$H$8</f>
@@ -28122,90 +28282,90 @@
       </c>
       <c r="BR69">
         <f>'d7-to-d7'!K10 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BS69">
         <f>'d7-to-d7'!L10 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BT69">
         <f>'d7-to-d7'!M10 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BU69">
         <f>'d7-to-d7'!N10 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BV69">
         <f>'d7-to-d7'!O10 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BW69">
         <f>'d7-to-d7'!P10 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BX69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N10 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CL69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P10 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P10 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN69" s="3">
@@ -28257,67 +28417,67 @@
         <v>0</v>
       </c>
       <c r="DD69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N10 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DR69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O10 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS69">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P10 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P10 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -28356,179 +28516,195 @@
         <v>0</v>
       </c>
       <c r="L70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O11 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="AA70" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O11 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AQ70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P11 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O11 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BG70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH70">
@@ -28565,11 +28741,11 @@
       </c>
       <c r="BP70">
         <f>'d7-to-d7'!I11 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BQ70">
         <f>'d7-to-d7'!J11 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <f>'d7-to-d7'!K11 * Gains!$H$8</f>
@@ -28577,86 +28753,86 @@
       </c>
       <c r="BS70">
         <f>'d7-to-d7'!L11 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BT70">
         <f>'d7-to-d7'!M11 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BU70">
         <f>'d7-to-d7'!N11 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BV70">
         <f>'d7-to-d7'!O11 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BW70">
         <f>'d7-to-d7'!P11 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BX70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O11 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CM70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P11 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN70" s="3">
@@ -28708,67 +28884,67 @@
         <v>0</v>
       </c>
       <c r="DD70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N11 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O11 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DS70">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P11 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -28807,179 +28983,195 @@
         <v>0</v>
       </c>
       <c r="L71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z71" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA71" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P12 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="AB71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O12 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P12 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AR71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O12 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P12 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BH71">
@@ -29016,15 +29208,15 @@
       </c>
       <c r="BP71">
         <f>'d7-to-d7'!I12 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BQ71">
         <f>'d7-to-d7'!J12 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BR71">
         <f>'d7-to-d7'!K12 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BS71">
         <f>'d7-to-d7'!L12 * Gains!$H$8</f>
@@ -29032,84 +29224,84 @@
       </c>
       <c r="BT71">
         <f>'d7-to-d7'!M12 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BU71">
         <f>'d7-to-d7'!N12 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BV71">
         <f>'d7-to-d7'!O12 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BW71">
         <f>'d7-to-d7'!P12 * Gains!$H$8</f>
+        <v>-0.30000001192092801</v>
+      </c>
+      <c r="BX71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="BY71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="BZ71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CA71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CB71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CC71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CD71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CE71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CF71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CG71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CH71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CI71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CJ71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CK71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CL71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O12 * Gains!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="CM71">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P12 * Gains!$I$8</f>
         <v>-1</v>
       </c>
-      <c r="BX71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="BY71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="BZ71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CA71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CB71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CC71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CD71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CE71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CF71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CG71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CH71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CI71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CJ71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CK71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CL71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O12 * Gains!$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="CM71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$I$8</f>
-        <v>-1</v>
-      </c>
       <c r="CN71" s="3">
         <v>0</v>
       </c>
@@ -29159,67 +29351,67 @@
         <v>0</v>
       </c>
       <c r="DD71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O12 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS71">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P12 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
     </row>
@@ -29258,179 +29450,195 @@
         <v>0</v>
       </c>
       <c r="L72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T72" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I13 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="U72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA72" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I13 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AK72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P13 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P13 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I13 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BA72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P13 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P13 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH72">
@@ -29467,19 +29675,19 @@
       </c>
       <c r="BP72">
         <f>'d7-to-d7'!I13 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BQ72">
         <f>'d7-to-d7'!J13 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BR72">
         <f>'d7-to-d7'!K13 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BS72">
         <f>'d7-to-d7'!L13 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BT72">
         <f>'d7-to-d7'!M13 * Gains!$H$8</f>
@@ -29487,78 +29695,78 @@
       </c>
       <c r="BU72">
         <f>'d7-to-d7'!N13 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BV72">
         <f>'d7-to-d7'!O13 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BW72">
         <f>'d7-to-d7'!P13 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BX72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I13 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CG72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P13 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P13 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN72" s="3">
@@ -29610,67 +29818,67 @@
         <v>0</v>
       </c>
       <c r="DD72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I13 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DM72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O13 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS72">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P13 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P13 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -29709,179 +29917,195 @@
         <v>0</v>
       </c>
       <c r="L73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U73" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J14 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="V73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA73" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J14 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AL73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P14 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P14 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J14 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BB73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P14 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P14 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH73">
@@ -29918,23 +30142,23 @@
       </c>
       <c r="BP73">
         <f>'d7-to-d7'!I14 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BQ73">
         <f>'d7-to-d7'!J14 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BR73">
         <f>'d7-to-d7'!K14 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BS73">
         <f>'d7-to-d7'!L14 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BT73">
         <f>'d7-to-d7'!M14 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BU73">
         <f>'d7-to-d7'!N14 * Gains!$H$8</f>
@@ -29942,74 +30166,74 @@
       </c>
       <c r="BV73">
         <f>'d7-to-d7'!O14 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BW73">
         <f>'d7-to-d7'!P14 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BX73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J14 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CH73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P14 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P14 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN73" s="3">
@@ -30061,67 +30285,67 @@
         <v>0</v>
       </c>
       <c r="DD73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J14 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DN73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O14 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS73">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P14 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P14 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -30160,179 +30384,195 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K15 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="W74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA74" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K15 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AM74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AN74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P15 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P15 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K15 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BC74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BD74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P15 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P15 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH74">
@@ -30369,27 +30609,27 @@
       </c>
       <c r="BP74">
         <f>'d7-to-d7'!I15 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BQ74">
         <f>'d7-to-d7'!J15 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BR74">
         <f>'d7-to-d7'!K15 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BS74">
         <f>'d7-to-d7'!L15 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BT74">
         <f>'d7-to-d7'!M15 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BU74">
         <f>'d7-to-d7'!N15 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BV74">
         <f>'d7-to-d7'!O15 * Gains!$H$8</f>
@@ -30397,70 +30637,70 @@
       </c>
       <c r="BW74">
         <f>'d7-to-d7'!P15 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BX74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K15 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CI74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CJ74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P15 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P15 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN74" s="3">
@@ -30512,67 +30752,67 @@
         <v>0</v>
       </c>
       <c r="DD74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K15 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DO74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DP74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O15 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS74">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P15 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P15 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -30611,179 +30851,195 @@
         <v>0</v>
       </c>
       <c r="L75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <v>0</v>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L16 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="X75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA75" s="1">
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AC75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AD75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AE75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AF75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AG75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AH75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AI75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AJ75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AK75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AL75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AM75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L16 * Gains!$F$8</f>
         <v>-1</v>
       </c>
       <c r="AN75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AO75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AP75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AQ75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P16 * Gains!$F$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P16 * Gains!$F$8</f>
         <v>0</v>
       </c>
       <c r="AR75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AS75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AT75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AU75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AV75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AW75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AX75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AY75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="AZ75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BA75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BB75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BC75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L16 * Gains!$G$8</f>
         <v>-1</v>
       </c>
       <c r="BD75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BE75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BF75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BG75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P16 * Gains!$G$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P16 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH75">
@@ -30820,98 +31076,98 @@
       </c>
       <c r="BP75">
         <f>'d7-to-d7'!I16 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BQ75">
         <f>'d7-to-d7'!J16 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BR75">
         <f>'d7-to-d7'!K16 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BS75">
         <f>'d7-to-d7'!L16 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BT75">
         <f>'d7-to-d7'!M16 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BU75">
         <f>'d7-to-d7'!N16 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BV75">
         <f>'d7-to-d7'!O16 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BW75">
         <f>'d7-to-d7'!P16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BY75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="BZ75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CA75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CB75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CC75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CD75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CE75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CF75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CG75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CH75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CI75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L16 * Gains!$I$8</f>
         <v>-1</v>
       </c>
       <c r="CJ75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CK75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CL75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CM75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P16 * Gains!$I$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P16 * Gains!$I$8</f>
         <v>0</v>
       </c>
       <c r="CN75" s="3">
@@ -30963,67 +31219,67 @@
         <v>0</v>
       </c>
       <c r="DD75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!A16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!A16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DE75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!B16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!B16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DF75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!C16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!C16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DG75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!D16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!D16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DH75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!E16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!E16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DI75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!F16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!F16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DJ75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!G16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!G16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DK75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!H16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!H16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DL75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!I16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!I16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DM75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!J16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!J16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DN75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!K16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!K16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DO75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!L16 * Gains!$K$8</f>
         <v>-0.5</v>
       </c>
       <c r="DP75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!M16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DQ75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!N16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!N16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DR75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!O16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!O16 * Gains!$K$8</f>
         <v>0</v>
       </c>
       <c r="DS75">
-        <f>'d7-to-PEG-PEN-PFN-PFL'!P16 * Gains!$K$8</f>
+        <f>'d7-to-EPG-PEG-PEN-PFN-PFL'!P16 * Gains!$K$8</f>
         <v>0</v>
       </c>
     </row>
@@ -49861,6 +50117,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:AA8 AR9:BG10 AB12:BW27 BX11:CM11 L28:AA59 AB60:CM75 CN76:DC91 DD60:DS107">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN92:DC107">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -49872,7 +50140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN92:DC107">
+  <conditionalFormatting sqref="CN76:DS107 DD60:DS75 AB60:CM75 L28:AA59 AB12:BW27 BX11:CM11 AR9:BG10 L1:AA8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -49884,7 +50152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN76:DS107 DD60:DS75 AB60:CM75 L28:AA59 AB12:BW27 BX11:CM11 AR9:BG10 L1:AA8">
+  <conditionalFormatting sqref="L28:AA75 AB60:AQ75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -49905,8 +50173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF4CAB-DFCA-4B2E-871B-644CFA062EB7}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -49916,25 +50184,25 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="D1">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="F1">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="G1">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="H1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -49963,28 +50231,28 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="E2">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="G2">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="H2">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -50013,28 +50281,28 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="B3">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="F3">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="H3">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -50063,28 +50331,28 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="B4">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="C4">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="G4">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -50113,28 +50381,28 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="B5">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="C5">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="D5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="H5">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -50163,28 +50431,28 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="C6">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="D6">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="E6">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -50213,28 +50481,28 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="B7">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="D7">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="E7">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="F7">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -50263,25 +50531,25 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="C8">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="E8">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="F8">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="G8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -50340,25 +50608,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="L9">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="N9">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="O9">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="P9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -50387,28 +50655,28 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="M10">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="O10">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="P10">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -50437,28 +50705,28 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="J11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="N11">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="P11">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -50487,28 +50755,28 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="J12">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="K12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="O12">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -50537,28 +50805,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="J13">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="K13">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="L13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="P13">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -50587,28 +50855,28 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="K14">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="L14">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="M14">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -50637,28 +50905,28 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="J15">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="L15">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="M15">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="N15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -50687,32 +50955,56 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="K16">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="M16">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="N16">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="O16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:P16">
+  <conditionalFormatting sqref="A9:H16 I1:P8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:P16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -50733,7 +51025,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F33:F34"/>
+      <selection activeCell="P16" sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -55401,8 +55693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FFBB60-C9AF-470A-B711-59681D0A1768}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -55494,7 +55786,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -55561,13 +55853,13 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -55593,7 +55885,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -55628,7 +55920,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -55662,8 +55954,8 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
+      <c r="E8">
+        <v>0.2</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -58096,8 +58388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DE8B51-B1FF-4D25-B506-1F575EB0C016}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -58107,10 +58399,12 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C1">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -58125,7 +58419,8 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -58154,16 +58449,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -58204,19 +58502,23 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E3">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -58257,19 +58559,23 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F4">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -58310,19 +58616,23 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -58363,19 +58673,23 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E6">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -58404,7 +58718,8 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -58416,16 +58731,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F7">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -58454,10 +58772,12 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -58469,10 +58789,12 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G8">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -58531,10 +58853,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -58546,10 +58870,12 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -58578,16 +58904,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -58599,7 +58928,8 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -58628,19 +58958,23 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J11">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M11">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -58681,19 +59015,23 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K12">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N12">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -58734,19 +59072,23 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L13">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O13">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -58787,19 +59129,23 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M14">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P14">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -58828,7 +59174,8 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -58840,16 +59187,19 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N15">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -58878,10 +59228,12 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J16">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -58893,10 +59245,12 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O16">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P16">
         <v>1</v>
